--- a/nix_datasheet.xlsx
+++ b/nix_datasheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iacobus/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iacobus/Documents/GitHub/NIX-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t>location</t>
   </si>
@@ -81,12 +81,57 @@
   </si>
   <si>
     <t>clamnum</t>
+  </si>
+  <si>
+    <t>5/2003 Tube A</t>
+  </si>
+  <si>
+    <t>2003-8</t>
+  </si>
+  <si>
+    <t>2003-4</t>
+  </si>
+  <si>
+    <t>2003-2</t>
+  </si>
+  <si>
+    <t>2003-16</t>
+  </si>
+  <si>
+    <t>2003-14</t>
+  </si>
+  <si>
+    <t>2003-17</t>
+  </si>
+  <si>
+    <t>2003-6</t>
+  </si>
+  <si>
+    <t>2003-3</t>
+  </si>
+  <si>
+    <t>2003-7</t>
+  </si>
+  <si>
+    <t>2003-5</t>
+  </si>
+  <si>
+    <t>2003-11B</t>
+  </si>
+  <si>
+    <t>2003-13</t>
+  </si>
+  <si>
+    <t>2003-11A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -123,12 +168,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K152" sqref="K152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -420,9 +468,9 @@
     <col min="5" max="6" width="13.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="5" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -452,13 +500,13 @@
       <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -490,13 +538,13 @@
       <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="6">
         <v>1016.4</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="6">
         <v>1048.0999999999999</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="6">
         <f>J2-I2</f>
         <v>31.699999999999932</v>
       </c>
@@ -527,13 +575,13 @@
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <v>1004.8</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="6">
         <v>1032</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="6">
         <f t="shared" ref="K3:K18" si="0">J3-I3</f>
         <v>27.200000000000045</v>
       </c>
@@ -564,13 +612,13 @@
       <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="6">
         <v>1001.3</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="6">
         <v>1028.5</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="6">
         <f t="shared" si="0"/>
         <v>27.200000000000045</v>
       </c>
@@ -601,13 +649,13 @@
       <c r="H5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <v>1001</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>1022.7</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="6">
         <f t="shared" si="0"/>
         <v>21.700000000000045</v>
       </c>
@@ -638,13 +686,13 @@
       <c r="H6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <v>1009.8</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>1036</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <f t="shared" si="0"/>
         <v>26.200000000000045</v>
       </c>
@@ -675,13 +723,13 @@
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>1008.1</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>1054.0999999999999</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <f t="shared" si="0"/>
         <v>45.999999999999886</v>
       </c>
@@ -712,13 +760,13 @@
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="6">
         <v>1006.9</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="6">
         <v>1041.3</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="6">
         <f t="shared" si="0"/>
         <v>34.399999999999977</v>
       </c>
@@ -749,13 +797,13 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>1001.4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>1028.5</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <f t="shared" si="0"/>
         <v>27.100000000000023</v>
       </c>
@@ -786,13 +834,13 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>1013.6</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>1049</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <f t="shared" si="0"/>
         <v>35.399999999999977</v>
       </c>
@@ -823,13 +871,13 @@
       <c r="H11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>1009.4</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>1052.3</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <f t="shared" si="0"/>
         <v>42.899999999999977</v>
       </c>
@@ -860,13 +908,13 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="5">
         <v>1007.3</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="5">
         <v>1046.7</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="6">
         <f t="shared" si="0"/>
         <v>39.400000000000091</v>
       </c>
@@ -896,13 +944,13 @@
       <c r="H13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="5">
         <v>1002.7</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="5">
         <v>1042</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="6">
         <f t="shared" si="0"/>
         <v>39.299999999999955</v>
       </c>
@@ -932,13 +980,13 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="5">
         <v>1006.3</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="5">
         <v>1065.0999999999999</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="6">
         <f t="shared" si="0"/>
         <v>58.799999999999955</v>
       </c>
@@ -971,13 +1019,13 @@
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="5">
         <v>1004.9</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="5">
         <v>1048.9000000000001</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="6">
         <f t="shared" si="0"/>
         <v>44.000000000000114</v>
       </c>
@@ -1007,13 +1055,13 @@
       <c r="H16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="5">
         <v>1005</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="5">
         <v>1036.5999999999999</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="6">
         <f t="shared" si="0"/>
         <v>31.599999999999909</v>
       </c>
@@ -1043,13 +1091,13 @@
       <c r="H17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="5">
         <v>1006.1</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="5">
         <v>1036.7</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="6">
         <f t="shared" si="0"/>
         <v>30.600000000000023</v>
       </c>
@@ -1079,13 +1127,13 @@
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="5">
         <v>1001.3</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="5">
         <v>1031.2</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="6">
         <f t="shared" si="0"/>
         <v>29.900000000000091</v>
       </c>
@@ -1106,7 +1154,7 @@
       <c r="G19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="5">
         <v>1008.7</v>
       </c>
     </row>
@@ -1126,7 +1174,7 @@
       <c r="G20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="5">
         <v>1004.9</v>
       </c>
     </row>
@@ -1146,7 +1194,7 @@
       <c r="G21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="5">
         <v>1007.3</v>
       </c>
     </row>
@@ -1190,7 +1238,1105 @@
         <v>28</v>
       </c>
     </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="J86" s="5">
+        <v>1038.5999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="J87" s="5">
+        <v>1051.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="J88" s="5">
+        <v>1035.5999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="J89" s="5">
+        <v>1044.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="J90" s="5">
+        <v>1033.9000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="J91" s="5">
+        <v>1058.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="J92" s="5">
+        <v>1045.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="J93" s="5">
+        <v>1041.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="I151" s="5">
+        <v>1001.2</v>
+      </c>
+      <c r="L151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="I152" s="5">
+        <v>1005.1</v>
+      </c>
+      <c r="L152" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="I153" s="5">
+        <v>1006.3</v>
+      </c>
+      <c r="L153" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="I154" s="5">
+        <v>1000.4</v>
+      </c>
+      <c r="L154" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="I155" s="5">
+        <v>1001</v>
+      </c>
+      <c r="L155" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="I156" s="5">
+        <v>998.4</v>
+      </c>
+      <c r="L156" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="I157" s="5">
+        <v>1006.4</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="I158" s="5">
+        <v>1000.5</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="I159" s="5">
+        <v>996.3</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="I160" s="5">
+        <v>1003.8</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="I161" s="5">
+        <v>998.5</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="I162" s="5">
+        <v>1012.9</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="I163" s="5">
+        <v>1004.6</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="I164" s="5">
+        <v>1008.3</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="I165" s="5">
+        <v>1011.9</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="I166" s="5">
+        <v>1005.2</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="I167" s="5">
+        <v>996</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="I168" s="5">
+        <v>1012.7</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="I169" s="5">
+        <v>1012.2</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="I170" s="5">
+        <v>1005.8</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="I171" s="5">
+        <v>1000.6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="I172" s="5">
+        <v>1002.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="I173" s="5">
+        <v>1004.7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="I174" s="5">
+        <v>1007.4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="I175" s="5">
+        <v>1004.9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="I176" s="5">
+        <v>1002.7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="I177" s="5">
+        <v>1006.9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="I178" s="5">
+        <v>1006.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="I179" s="5">
+        <v>1001.1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="I180" s="5">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="I181" s="5">
+        <v>1005.7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="I182" s="5">
+        <v>1001.4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="I183" s="5">
+        <v>1000.7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="I184" s="5">
+        <v>1004.4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="I185" s="5">
+        <v>996.1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="I186" s="5">
+        <v>1004.2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="I187" s="5">
+        <v>1005.4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="I188" s="5">
+        <v>1016.6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="I189" s="5">
+        <v>1006.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="I190" s="5">
+        <v>1002.1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="I191" s="5">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="I192" s="5">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="I193" s="5">
+        <v>1006.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="I194" s="5">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="I195" s="5">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="I196" s="5">
+        <v>1002.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="I197" s="5">
+        <v>1011.4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="I198" s="5">
+        <v>1010.8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="I199" s="5">
+        <v>1011.1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="I200" s="5">
+        <v>1006.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="I201" s="5">
+        <v>1006.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>